--- a/StockPredictor/bin/Debug/Packages/Data/Trades/LongTrades/CELG/CELGNamedTradeLongHold.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/Trades/LongTrades/CELG/CELGNamedTradeLongHold.xlsx
@@ -402,13 +402,13 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>42633.874976851854</v>
+        <v>42634.666932870372</v>
       </c>
       <c r="C2">
         <v>10000</v>
       </c>
       <c r="D2">
-        <v>108.67</v>
+        <v>108.42</v>
       </c>
       <c r="G2" s="1" t="b">
         <v>1</v>

--- a/StockPredictor/bin/Debug/Packages/Data/Trades/LongTrades/CELG/CELGNamedTradeLongHold.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/Trades/LongTrades/CELG/CELGNamedTradeLongHold.xlsx
@@ -402,13 +402,13 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>42640.548506944448</v>
+        <v>42642.487222222226</v>
       </c>
       <c r="C2">
         <v>10000</v>
       </c>
       <c r="D2">
-        <v>109</v>
+        <v>107.01</v>
       </c>
       <c r="G2" s="1" t="b">
         <v>1</v>

--- a/StockPredictor/bin/Debug/Packages/Data/Trades/LongTrades/CELG/CELGNamedTradeLongHold.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/Trades/LongTrades/CELG/CELGNamedTradeLongHold.xlsx
@@ -369,12 +369,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">

--- a/StockPredictor/bin/Debug/Packages/Data/Trades/LongTrades/CELG/CELGNamedTradeLongHold.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/Trades/LongTrades/CELG/CELGNamedTradeLongHold.xlsx
@@ -369,12 +369,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
